--- a/natmiOut/OldD0/LR-pairs_lrc2p/Fn1-Plaur.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Fn1-Plaur.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>25.5477615340025</v>
+        <v>27.03890566666666</v>
       </c>
       <c r="H2">
-        <v>25.5477615340025</v>
+        <v>81.11671699999999</v>
       </c>
       <c r="I2">
-        <v>0.06805932265749513</v>
+        <v>0.07096188219033728</v>
       </c>
       <c r="J2">
-        <v>0.06805932265749513</v>
+        <v>0.07096188219033729</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>38.7241200188267</v>
+        <v>56.98117766666667</v>
       </c>
       <c r="N2">
-        <v>38.7241200188267</v>
+        <v>170.943533</v>
       </c>
       <c r="O2">
-        <v>0.9330649108198242</v>
+        <v>0.952030123851636</v>
       </c>
       <c r="P2">
-        <v>0.9330649108198242</v>
+        <v>0.9520301238516359</v>
       </c>
       <c r="Q2">
-        <v>989.314583855077</v>
+        <v>1540.708687704573</v>
       </c>
       <c r="R2">
-        <v>989.314583855077</v>
+        <v>13866.37818934116</v>
       </c>
       <c r="S2">
-        <v>0.06350376582587335</v>
+        <v>0.06755784949041201</v>
       </c>
       <c r="T2">
-        <v>0.06350376582587335</v>
+        <v>0.06755784949041201</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>25.5477615340025</v>
+        <v>27.03890566666666</v>
       </c>
       <c r="H3">
-        <v>25.5477615340025</v>
+        <v>81.11671699999999</v>
       </c>
       <c r="I3">
-        <v>0.06805932265749513</v>
+        <v>0.07096188219033728</v>
       </c>
       <c r="J3">
-        <v>0.06805932265749513</v>
+        <v>0.07096188219033729</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.46080732489328</v>
+        <v>2.516719</v>
       </c>
       <c r="N3">
-        <v>2.46080732489328</v>
+        <v>7.550157</v>
       </c>
       <c r="O3">
-        <v>0.0592936125089483</v>
+        <v>0.04204883786863874</v>
       </c>
       <c r="P3">
-        <v>0.0592936125089483</v>
+        <v>0.04204883786863874</v>
       </c>
       <c r="Q3">
-        <v>62.86811871750012</v>
+        <v>68.04932763050766</v>
       </c>
       <c r="R3">
-        <v>62.86811871750012</v>
+        <v>612.443948674569</v>
       </c>
       <c r="S3">
-        <v>0.004035483105275002</v>
+        <v>0.002983864679074935</v>
       </c>
       <c r="T3">
-        <v>0.004035483105275002</v>
+        <v>0.002983864679074936</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>25.5477615340025</v>
+        <v>27.03890566666666</v>
       </c>
       <c r="H4">
-        <v>25.5477615340025</v>
+        <v>81.11671699999999</v>
       </c>
       <c r="I4">
-        <v>0.06805932265749513</v>
+        <v>0.07096188219033728</v>
       </c>
       <c r="J4">
-        <v>0.06805932265749513</v>
+        <v>0.07096188219033729</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.317137056925309</v>
+        <v>0.3543876666666666</v>
       </c>
       <c r="N4">
-        <v>0.317137056925309</v>
+        <v>1.063163</v>
       </c>
       <c r="O4">
-        <v>0.00764147667122742</v>
+        <v>0.005921038279725251</v>
       </c>
       <c r="P4">
-        <v>0.00764147667122742</v>
+        <v>0.005921038279725251</v>
       </c>
       <c r="Q4">
-        <v>8.102141903923171</v>
+        <v>9.582254688430108</v>
       </c>
       <c r="R4">
-        <v>8.102141903923171</v>
+        <v>86.24029219587098</v>
       </c>
       <c r="S4">
-        <v>0.0005200737263467888</v>
+        <v>0.0004201680208503406</v>
       </c>
       <c r="T4">
-        <v>0.0005200737263467888</v>
+        <v>0.0004201680208503406</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>341.49718029295</v>
+        <v>345.566579</v>
       </c>
       <c r="H5">
-        <v>341.49718029295</v>
+        <v>1036.699737</v>
       </c>
       <c r="I5">
-        <v>0.909749636939773</v>
+        <v>0.9069174311350353</v>
       </c>
       <c r="J5">
-        <v>0.909749636939773</v>
+        <v>0.9069174311350354</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>38.7241200188267</v>
+        <v>56.98117766666667</v>
       </c>
       <c r="N5">
-        <v>38.7241200188267</v>
+        <v>170.943533</v>
       </c>
       <c r="O5">
-        <v>0.9330649108198242</v>
+        <v>0.952030123851636</v>
       </c>
       <c r="P5">
-        <v>0.9330649108198242</v>
+        <v>0.9520301238516359</v>
       </c>
       <c r="Q5">
-        <v>13224.1777957551</v>
+        <v>19690.7906336612</v>
       </c>
       <c r="R5">
-        <v>13224.1777957551</v>
+        <v>177217.1157029508</v>
       </c>
       <c r="S5">
-        <v>0.8488554638595768</v>
+        <v>0.8634127142866952</v>
       </c>
       <c r="T5">
-        <v>0.8488554638595768</v>
+        <v>0.8634127142866952</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>341.49718029295</v>
+        <v>345.566579</v>
       </c>
       <c r="H6">
-        <v>341.49718029295</v>
+        <v>1036.699737</v>
       </c>
       <c r="I6">
-        <v>0.909749636939773</v>
+        <v>0.9069174311350353</v>
       </c>
       <c r="J6">
-        <v>0.909749636939773</v>
+        <v>0.9069174311350354</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.46080732489328</v>
+        <v>2.516719</v>
       </c>
       <c r="N6">
-        <v>2.46080732489328</v>
+        <v>7.550157</v>
       </c>
       <c r="O6">
-        <v>0.0592936125089483</v>
+        <v>0.04204883786863874</v>
       </c>
       <c r="P6">
-        <v>0.0592936125089483</v>
+        <v>0.04204883786863874</v>
       </c>
       <c r="Q6">
-        <v>840.3587626952924</v>
+        <v>869.693975134301</v>
       </c>
       <c r="R6">
-        <v>840.3587626952924</v>
+        <v>7827.245776208709</v>
       </c>
       <c r="S6">
-        <v>0.0539423424528633</v>
+        <v>0.03813482402203944</v>
       </c>
       <c r="T6">
-        <v>0.0539423424528633</v>
+        <v>0.03813482402203944</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>341.49718029295</v>
+        <v>345.566579</v>
       </c>
       <c r="H7">
-        <v>341.49718029295</v>
+        <v>1036.699737</v>
       </c>
       <c r="I7">
-        <v>0.909749636939773</v>
+        <v>0.9069174311350353</v>
       </c>
       <c r="J7">
-        <v>0.909749636939773</v>
+        <v>0.9069174311350354</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.317137056925309</v>
+        <v>0.3543876666666666</v>
       </c>
       <c r="N7">
-        <v>0.317137056925309</v>
+        <v>1.063163</v>
       </c>
       <c r="O7">
-        <v>0.00764147667122742</v>
+        <v>0.005921038279725251</v>
       </c>
       <c r="P7">
-        <v>0.00764147667122742</v>
+        <v>0.005921038279725251</v>
       </c>
       <c r="Q7">
-        <v>108.3014107063978</v>
+        <v>122.4645336097923</v>
       </c>
       <c r="R7">
-        <v>108.3014107063978</v>
+        <v>1102.180802488131</v>
       </c>
       <c r="S7">
-        <v>0.00695183062733289</v>
+        <v>0.005369892826300633</v>
       </c>
       <c r="T7">
-        <v>0.00695183062733289</v>
+        <v>0.005369892826300634</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.32995960382183</v>
+        <v>8.428738666666668</v>
       </c>
       <c r="H8">
-        <v>8.32995960382183</v>
+        <v>25.286216</v>
       </c>
       <c r="I8">
-        <v>0.02219104040273193</v>
+        <v>0.0221206866746274</v>
       </c>
       <c r="J8">
-        <v>0.02219104040273193</v>
+        <v>0.02212068667462741</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>38.7241200188267</v>
+        <v>56.98117766666667</v>
       </c>
       <c r="N8">
-        <v>38.7241200188267</v>
+        <v>170.943533</v>
       </c>
       <c r="O8">
-        <v>0.9330649108198242</v>
+        <v>0.952030123851636</v>
       </c>
       <c r="P8">
-        <v>0.9330649108198242</v>
+        <v>0.9520301238516359</v>
       </c>
       <c r="Q8">
-        <v>322.5703554503747</v>
+        <v>480.2794554712365</v>
       </c>
       <c r="R8">
-        <v>322.5703554503747</v>
+        <v>4322.515099241128</v>
       </c>
       <c r="S8">
-        <v>0.02070568113437419</v>
+        <v>0.02105956007452876</v>
       </c>
       <c r="T8">
-        <v>0.02070568113437419</v>
+        <v>0.02105956007452876</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.32995960382183</v>
+        <v>8.428738666666668</v>
       </c>
       <c r="H9">
-        <v>8.32995960382183</v>
+        <v>25.286216</v>
       </c>
       <c r="I9">
-        <v>0.02219104040273193</v>
+        <v>0.0221206866746274</v>
       </c>
       <c r="J9">
-        <v>0.02219104040273193</v>
+        <v>0.02212068667462741</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.46080732489328</v>
+        <v>2.516719</v>
       </c>
       <c r="N9">
-        <v>2.46080732489328</v>
+        <v>7.550157</v>
       </c>
       <c r="O9">
-        <v>0.0592936125089483</v>
+        <v>0.04204883786863874</v>
       </c>
       <c r="P9">
-        <v>0.0592936125089483</v>
+        <v>0.04204883786863874</v>
       </c>
       <c r="Q9">
-        <v>20.49842560914988</v>
+        <v>21.21276674843467</v>
       </c>
       <c r="R9">
-        <v>20.49842560914988</v>
+        <v>190.914900735912</v>
       </c>
       <c r="S9">
-        <v>0.001315786950810003</v>
+        <v>0.0009301491675243651</v>
       </c>
       <c r="T9">
-        <v>0.001315786950810003</v>
+        <v>0.0009301491675243653</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.32995960382183</v>
+        <v>8.428738666666668</v>
       </c>
       <c r="H10">
-        <v>8.32995960382183</v>
+        <v>25.286216</v>
       </c>
       <c r="I10">
-        <v>0.02219104040273193</v>
+        <v>0.0221206866746274</v>
       </c>
       <c r="J10">
-        <v>0.02219104040273193</v>
+        <v>0.02212068667462741</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.317137056925309</v>
+        <v>0.3543876666666666</v>
       </c>
       <c r="N10">
-        <v>0.317137056925309</v>
+        <v>1.063163</v>
       </c>
       <c r="O10">
-        <v>0.00764147667122742</v>
+        <v>0.005921038279725251</v>
       </c>
       <c r="P10">
-        <v>0.00764147667122742</v>
+        <v>0.005921038279725251</v>
       </c>
       <c r="Q10">
-        <v>2.641738873062768</v>
+        <v>2.987041029023111</v>
       </c>
       <c r="R10">
-        <v>2.641738873062768</v>
+        <v>26.883369261208</v>
       </c>
       <c r="S10">
-        <v>0.0001695723175477412</v>
+        <v>0.0001309774325742771</v>
       </c>
       <c r="T10">
-        <v>0.0001695723175477412</v>
+        <v>0.0001309774325742771</v>
       </c>
     </row>
   </sheetData>
